--- a/biology/Botanique/Aechmea_distichantha/Aechmea_distichantha.xlsx
+++ b/biology/Botanique/Aechmea_distichantha/Aechmea_distichantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea distichantha est une espèce de plantes à fleurs de la famille des Bromeliaceae qui se rencontre du Brésil à l'Uruguay.
 </t>
@@ -511,33 +523,35 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea brasiliensis Regel[1] ;
-Aechmea distichantha f. albiflora L.B.Sm.[1] ;
-Aechmea distichantha var. distichantha[1] ;
-Aechmea distichantha f. distichantha[1] ;
-Aechmea excavata Baker[1] ;
-Aechmea hookeri Lem.[1] ;
-Aechmea microphylla Mez[1] ;
-Aechmea myriophylla E.Morren ex Baker[1] ;
-Aechmea platyphylla Hassl.[1] ;
-Aechmea polystachia (Lindl. &amp; Paxton) Mez[1] ;
-Aechmea polystachia var. excavata (Baker) Mez[1] ;
-Aechmea polystachya var. longifolia A.Cast.[1] ;
-Aechmea polystachya var. myriophylla Hassl.[1] ;
-Billbergia distichostachya Lem.[1] ;
-Billbergia polystachia Lindl. &amp; Paxton[1] ;
-Hohenbergia distichantha (Lem.) Baker[1] ;
-Hoplophytum distichanthum (Lem.) Beer[1] ;
-Hoplophytum polystachium (Lindl. &amp; Paxton) Beer[1] ;
-Nidularium hydrophorum Rojas[1] ;
-Platyaechmea distichantha (Lem.) L.B.Sm. &amp; W.J.Kress[1] ;
-Platyaechmea distichantha f. albiflora (L.B.Sm.) L.B.Sm. &amp; W.J.Kress[1] ;
-Quesnelia distchantha (Lem.) Lindm.[1] ;
-Quesnelia distichanta (Lem.) Lindm.[1] ;
-Tillandsia polystachia Vell. [Illégitime][1].
+Aechmea brasiliensis Regel ;
+Aechmea distichantha f. albiflora L.B.Sm. ;
+Aechmea distichantha var. distichantha ;
+Aechmea distichantha f. distichantha ;
+Aechmea excavata Baker ;
+Aechmea hookeri Lem. ;
+Aechmea microphylla Mez ;
+Aechmea myriophylla E.Morren ex Baker ;
+Aechmea platyphylla Hassl. ;
+Aechmea polystachia (Lindl. &amp; Paxton) Mez ;
+Aechmea polystachia var. excavata (Baker) Mez ;
+Aechmea polystachya var. longifolia A.Cast. ;
+Aechmea polystachya var. myriophylla Hassl. ;
+Billbergia distichostachya Lem. ;
+Billbergia polystachia Lindl. &amp; Paxton ;
+Hohenbergia distichantha (Lem.) Baker ;
+Hoplophytum distichanthum (Lem.) Beer ;
+Hoplophytum polystachium (Lindl. &amp; Paxton) Beer ;
+Nidularium hydrophorum Rojas ;
+Platyaechmea distichantha (Lem.) L.B.Sm. &amp; W.J.Kress ;
+Platyaechmea distichantha f. albiflora (L.B.Sm.) L.B.Sm. &amp; W.J.Kress ;
+Quesnelia distchantha (Lem.) Lindm. ;
+Quesnelia distichanta (Lem.) Lindm. ;
+Tillandsia polystachia Vell. [Illégitime].
 </t>
         </is>
       </c>
@@ -566,9 +580,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre du Brésil à l'Uruguay[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre du Brésil à l'Uruguay.
 </t>
         </is>
       </c>
@@ -597,9 +613,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte ou saxicole[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte ou saxicole.
 </t>
         </is>
       </c>
